--- a/documents/тесты/MPIHypernetTest.xlsx
+++ b/documents/тесты/MPIHypernetTest.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD4A659-07A0-47E1-A70B-5B9E2D497A93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R" sheetId="1" r:id="rId1"/>
     <sheet name="C" sheetId="3" r:id="rId2"/>
-    <sheet name="Test1" sheetId="4" r:id="rId3"/>
-    <sheet name="Test2" sheetId="5" r:id="rId4"/>
-    <sheet name="Test3" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>R</t>
   </si>
@@ -53,294 +51,6 @@
   </si>
   <si>
     <t>2577.79</t>
-  </si>
-  <si>
-    <t>Результаты расчёта значения APC для TestHypernet(56, 78, 0, 5) с двумя вкладываемыми деревьями по 28 вершин, корни которых могут быть выбраны из множества 1, 14, 28, 42, 56</t>
-  </si>
-  <si>
-    <t>FirstRoot</t>
-  </si>
-  <si>
-    <t>SecondRoot</t>
-  </si>
-  <si>
-    <t>TreeNodeIntersections</t>
-  </si>
-  <si>
-    <t>UnconnectedTreeNodes</t>
-  </si>
-  <si>
-    <t>Value p=0,9</t>
-  </si>
-  <si>
-    <t>Value p=0,99</t>
-  </si>
-  <si>
-    <t>0.0407232977243137</t>
-  </si>
-  <si>
-    <t>0.415783643589704</t>
-  </si>
-  <si>
-    <t>1346.81400946213</t>
-  </si>
-  <si>
-    <t>0.0310345564841134</t>
-  </si>
-  <si>
-    <t>0.433846479057283</t>
-  </si>
-  <si>
-    <t>2798.29239239905</t>
-  </si>
-  <si>
-    <t>0.0479243250680992</t>
-  </si>
-  <si>
-    <t>0.433422957553646</t>
-  </si>
-  <si>
-    <t>1454.73693695711</t>
-  </si>
-  <si>
-    <t>0.023168673068677</t>
-  </si>
-  <si>
-    <t>0.381309362381559</t>
-  </si>
-  <si>
-    <t>5966.40902398201</t>
-  </si>
-  <si>
-    <t>0.0387163247857552</t>
-  </si>
-  <si>
-    <t>0.439999276484753</t>
-  </si>
-  <si>
-    <t>2697.09397067234</t>
-  </si>
-  <si>
-    <t>0.0210452860875262</t>
-  </si>
-  <si>
-    <t>0.434256901542712</t>
-  </si>
-  <si>
-    <t>1175.78698870947</t>
-  </si>
-  <si>
-    <t>0.057958793143114</t>
-  </si>
-  <si>
-    <t>0.386236405442104</t>
-  </si>
-  <si>
-    <t>3851.734914214</t>
-  </si>
-  <si>
-    <t>0.0371822396311275</t>
-  </si>
-  <si>
-    <t>0.41812877751548</t>
-  </si>
-  <si>
-    <t>4550.2585846805</t>
-  </si>
-  <si>
-    <t>0.0423185781214436</t>
-  </si>
-  <si>
-    <t>0.376263222020351</t>
-  </si>
-  <si>
-    <t>3475.13351703924</t>
-  </si>
-  <si>
-    <t>0.0216806601896791</t>
-  </si>
-  <si>
-    <t>0.369356843524354</t>
-  </si>
-  <si>
-    <t>1907.76241526508</t>
-  </si>
-  <si>
-    <t>Результаты расчёта значения APC TestHypernet(72, 96, 0, 8) с 7 вкладываемыми деревьями по 11 вершин (последнее 6), корни которых могут быть выбраны из множества 1, 11, 21, 31, 41, 51, 61, 71</t>
-  </si>
-  <si>
-    <t>Roots</t>
-  </si>
-  <si>
-    <t>1,11,21,31,41,51,61</t>
-  </si>
-  <si>
-    <t>0.0080066273822353</t>
-  </si>
-  <si>
-    <t>0.0929330044881715</t>
-  </si>
-  <si>
-    <t>22.049336507851</t>
-  </si>
-  <si>
-    <t>1,11,21,31,41,51,71</t>
-  </si>
-  <si>
-    <t>0.0103905612156737</t>
-  </si>
-  <si>
-    <t>0.0969765668863263</t>
-  </si>
-  <si>
-    <t>19.3231415584887</t>
-  </si>
-  <si>
-    <t>1,11,21,31,41,61,71</t>
-  </si>
-  <si>
-    <t>0.0098147814736594</t>
-  </si>
-  <si>
-    <t>0.095015960375948</t>
-  </si>
-  <si>
-    <t>19.0854772743478</t>
-  </si>
-  <si>
-    <t>1,11,21,31,51,61,71</t>
-  </si>
-  <si>
-    <t>0.00937407217991192</t>
-  </si>
-  <si>
-    <t>0.0932911828324296</t>
-  </si>
-  <si>
-    <t>22.0898093193537</t>
-  </si>
-  <si>
-    <t>1,11,21,41,51,61,71</t>
-  </si>
-  <si>
-    <t>0.00630923126903377</t>
-  </si>
-  <si>
-    <t>0.0897211041247043</t>
-  </si>
-  <si>
-    <t>22.7518800573744</t>
-  </si>
-  <si>
-    <t>1,11,31,41,51,61,71</t>
-  </si>
-  <si>
-    <t>0.00738790487470032</t>
-  </si>
-  <si>
-    <t>0.0924342276570749</t>
-  </si>
-  <si>
-    <t>22.6516112383106</t>
-  </si>
-  <si>
-    <t>1,21,31,41,51,61,71</t>
-  </si>
-  <si>
-    <t>0.00797785970719297</t>
-  </si>
-  <si>
-    <t>0.0914392115665535</t>
-  </si>
-  <si>
-    <t>21.3669378370687</t>
-  </si>
-  <si>
-    <t>11,21,31,41,51,61,71</t>
-  </si>
-  <si>
-    <t>0.00902826947102076</t>
-  </si>
-  <si>
-    <t>0.0964274687788054</t>
-  </si>
-  <si>
-    <t>19.5504754794238</t>
-  </si>
-  <si>
-    <t>Результаты расчёта значения MENC TestHypernet(72, 96, 0, 8) с 7 вкладываемыми деревьями по 11 вершин (последнее 6), корни которых могут быть выбраны из множества 1, 11, 21, 31, 41, 51, 61, 71</t>
-  </si>
-  <si>
-    <t>23.121273</t>
-  </si>
-  <si>
-    <t>64.768697</t>
-  </si>
-  <si>
-    <t>1.78839314773268</t>
-  </si>
-  <si>
-    <t>25.213111</t>
-  </si>
-  <si>
-    <t>60.3993446</t>
-  </si>
-  <si>
-    <t>1.53448496945839</t>
-  </si>
-  <si>
-    <t>11.195345</t>
-  </si>
-  <si>
-    <t>55.555794</t>
-  </si>
-  <si>
-    <t>2.02589553979624</t>
-  </si>
-  <si>
-    <t>14.436275</t>
-  </si>
-  <si>
-    <t>60.877908</t>
-  </si>
-  <si>
-    <t>1.43989382728796</t>
-  </si>
-  <si>
-    <t>19.584103</t>
-  </si>
-  <si>
-    <t>62.987848</t>
-  </si>
-  <si>
-    <t>1.76943151992782</t>
-  </si>
-  <si>
-    <t>8.363369</t>
-  </si>
-  <si>
-    <t>52.832927</t>
-  </si>
-  <si>
-    <t>2.05379098460799</t>
-  </si>
-  <si>
-    <t>10.8673215</t>
-  </si>
-  <si>
-    <t>56.363279</t>
-  </si>
-  <si>
-    <t>исскуственный пример всвзи с невнимательностью</t>
-  </si>
-  <si>
-    <t>13.371274</t>
-  </si>
-  <si>
-    <t>59.893631</t>
-  </si>
-  <si>
-    <t>1.85964626789064</t>
   </si>
   <si>
     <t>Reductions</t>
@@ -406,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -742,7 +452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -771,13 +481,13 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="7" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -791,31 +501,31 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -850,7 +560,7 @@
         <v>116</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -885,7 +595,7 @@
         <v>72</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -920,7 +630,7 @@
         <v>3174</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1133,7 +843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1162,13 +872,13 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="7" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -1183,40 +893,40 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4">
         <v>125681</v>
@@ -1239,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4">
         <v>193437</v>
@@ -1271,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1360,587 +1070,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>28</v>
-      </c>
-      <c r="C4">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>42</v>
-      </c>
-      <c r="C5">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>56</v>
-      </c>
-      <c r="C6">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>28</v>
-      </c>
-      <c r="C7">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>42</v>
-      </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>56</v>
-      </c>
-      <c r="C9">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>28</v>
-      </c>
-      <c r="B10">
-        <v>42</v>
-      </c>
-      <c r="C10">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>56</v>
-      </c>
-      <c r="C11">
-        <v>17</v>
-      </c>
-      <c r="D11">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>42</v>
-      </c>
-      <c r="B12">
-        <v>56</v>
-      </c>
-      <c r="C12">
-        <v>16</v>
-      </c>
-      <c r="D12">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>